--- a/SEMANA 12/CLASE/Ejercicios Integradores Tema 08.xlsx
+++ b/SEMANA 12/CLASE/Ejercicios Integradores Tema 08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="701" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="701" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="10" sheetId="20" r:id="rId10"/>
     <sheet name="filtros ava01" sheetId="23" r:id="rId11"/>
     <sheet name="filtros ava02" sheetId="24" r:id="rId12"/>
+    <sheet name="filtros ava03" sheetId="25" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$B$6:$J$103</definedName>
@@ -43,600 +44,799 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'08'!$B$6:$J$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'filtros ava01'!$B$7:$H$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'filtros ava02'!$B$7:$K$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'filtros ava03'!$B$7:$K$104</definedName>
     <definedName name="_TAB1998" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB1998" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB1998" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB1998">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB1999" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB1999" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB1999" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB1999">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2000" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2000" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB2000" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2000">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2001" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2001" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB2001" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2001">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2002" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2002" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB2002" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2002">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2003" localSheetId="10">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2003" localSheetId="11">[1]Cuadro_52!#REF!</definedName>
+    <definedName name="_TAB2003" localSheetId="12">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_TAB2003">[1]Cuadro_52!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="11">'filtros ava02'!$N$11:$W$11</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="12">'filtros ava03'!$M$14:$P$14</definedName>
     <definedName name="base">'filtros ava02'!$B$7:$K$104</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="10">'filtros ava01'!$J$7:$K$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="11">'filtros ava02'!$N$7:$O$8</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="12">'filtros ava03'!$M$7:$N$8</definedName>
     <definedName name="datric04">[2]Mod_A_2004!$C$1:$AM$82</definedName>
     <definedName name="DPD" localSheetId="10">#REF!</definedName>
     <definedName name="DPD" localSheetId="11">#REF!</definedName>
+    <definedName name="DPD" localSheetId="12">#REF!</definedName>
     <definedName name="DPD">#REF!</definedName>
     <definedName name="FF" localSheetId="10">[3]CUADRO_37!#REF!</definedName>
     <definedName name="FF" localSheetId="11">[3]CUADRO_37!#REF!</definedName>
+    <definedName name="FF" localSheetId="12">[3]CUADRO_37!#REF!</definedName>
     <definedName name="FF">[3]CUADRO_37!#REF!</definedName>
     <definedName name="IEric04">[2]IE_04!$C$2:$AM$82</definedName>
     <definedName name="jj" localSheetId="10">#REF!</definedName>
     <definedName name="jj" localSheetId="11">#REF!</definedName>
+    <definedName name="jj" localSheetId="12">#REF!</definedName>
     <definedName name="jj">#REF!</definedName>
     <definedName name="jj___0" localSheetId="10">#REF!</definedName>
     <definedName name="jj___0" localSheetId="11">#REF!</definedName>
+    <definedName name="jj___0" localSheetId="12">#REF!</definedName>
     <definedName name="jj___0">#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="TAB1998___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB1998___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB1998___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB1998___0">#REF!</definedName>
     <definedName name="TAB1998___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1998___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1998___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB1999___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB1999___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB1999___0">#REF!</definedName>
     <definedName name="TAB1999___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB1999___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB1999___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB2000___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB2000___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB2000___0">#REF!</definedName>
     <definedName name="TAB2000___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2000___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2000___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB2001___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB2001___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB2001___0">#REF!</definedName>
     <definedName name="TAB2001___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2001___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2001___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB2002___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB2002___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB2002___0">#REF!</definedName>
     <definedName name="TAB2002___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2002___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2002___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___0" localSheetId="10">#REF!</definedName>
     <definedName name="TAB2003___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TAB2003___0" localSheetId="12">#REF!</definedName>
     <definedName name="TAB2003___0">#REF!</definedName>
     <definedName name="TAB2003___16" localSheetId="10">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___16" localSheetId="11">[4]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___16" localSheetId="12">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___16">[4]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___22" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___22" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___22" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___22">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___48" localSheetId="10">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___48" localSheetId="11">[5]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___48" localSheetId="12">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___48">[5]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___60" localSheetId="10">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___60" localSheetId="11">[6]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___60" localSheetId="12">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___60">[6]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___67" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___67" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___67" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___67">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___68" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___68" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___68" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___68">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___7" localSheetId="10">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___7" localSheetId="11">[8]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___7" localSheetId="12">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___7">[8]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___70" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___70" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___70" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___70">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___71" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___71" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___71" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___71">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___72" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___72" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___72" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___72">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___73" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___73" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___73" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___73">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___74" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___74" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___74" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___74">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___75" localSheetId="10">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___75" localSheetId="11">[7]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___75" localSheetId="12">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___75">[7]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___83" localSheetId="10">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___83" localSheetId="11">[9]Cuadro_52!#REF!</definedName>
+    <definedName name="TAB2003___83" localSheetId="12">[9]Cuadro_52!#REF!</definedName>
     <definedName name="TAB2003___83">[9]Cuadro_52!#REF!</definedName>
     <definedName name="tabla" localSheetId="10">[1]Cuadro__32!#REF!</definedName>
     <definedName name="tabla" localSheetId="11">[1]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla" localSheetId="12">[1]Cuadro__32!#REF!</definedName>
     <definedName name="tabla">[1]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___0" localSheetId="10">#REF!</definedName>
     <definedName name="tabla___0" localSheetId="11">#REF!</definedName>
+    <definedName name="tabla___0" localSheetId="12">#REF!</definedName>
     <definedName name="tabla___0">#REF!</definedName>
     <definedName name="tabla___11" localSheetId="10">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___11" localSheetId="11">[10]Cuadro_32!#REF!</definedName>
+    <definedName name="tabla___11" localSheetId="12">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___11">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___16" localSheetId="10">[4]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___16" localSheetId="11">[4]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___16" localSheetId="12">[4]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___16">[4]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___22" localSheetId="10">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___22" localSheetId="11">[5]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___22" localSheetId="12">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___22">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___48" localSheetId="10">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___48" localSheetId="11">[5]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___48" localSheetId="12">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___48">[5]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___60" localSheetId="10">[6]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___60" localSheetId="11">[6]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___60" localSheetId="12">[6]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___60">[6]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___67" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___67" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___67" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___67">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___68" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___68" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___68" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___68">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___7" localSheetId="10">[8]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___7" localSheetId="11">[8]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___7" localSheetId="12">[8]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___7">[8]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___70" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___70" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___70" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___70">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___71" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___71" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___71" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___71">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___72" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___72" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___72" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___72">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___73" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___73" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___73" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___73">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___74" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___74" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___74" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___74">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___75" localSheetId="10">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___75" localSheetId="11">[7]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___75" localSheetId="12">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___75">[7]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___8" localSheetId="10">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___8" localSheetId="11">[10]Cuadro_32!#REF!</definedName>
+    <definedName name="tabla___8" localSheetId="12">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___8">[10]Cuadro_32!#REF!</definedName>
     <definedName name="tabla___83" localSheetId="10">[9]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___83" localSheetId="11">[9]Cuadro__32!#REF!</definedName>
+    <definedName name="tabla___83" localSheetId="12">[9]Cuadro__32!#REF!</definedName>
     <definedName name="tabla___83">[9]Cuadro__32!#REF!</definedName>
     <definedName name="TABLA00" localSheetId="10">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00" localSheetId="11">[1]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00" localSheetId="12">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___0" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA00___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA00___0" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA00___0">#REF!</definedName>
     <definedName name="TABLA00___11" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___11" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___11" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___11">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___16" localSheetId="10">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___16" localSheetId="11">[4]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___16" localSheetId="12">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___16">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___22" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___22" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___22" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___22">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___48" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___48" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___48" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___48">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___60" localSheetId="10">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___60" localSheetId="11">[6]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___60" localSheetId="12">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___60">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___67" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___67" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___67" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___67">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___68" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___68" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___68" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___68">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___7" localSheetId="10">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___7" localSheetId="11">[8]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___7" localSheetId="12">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___7">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___70" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___70" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___70" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___70">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___71" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___71" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___71" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___71">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___72" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___72" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___72" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___72">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___73" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___73" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___73" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___73">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___74" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___74" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___74" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___74">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___75" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___75" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___75" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___75">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___8" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___8" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___8" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___8">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___83" localSheetId="10">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___83" localSheetId="11">[9]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA00___83" localSheetId="12">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA00___83">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01" localSheetId="10">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01" localSheetId="11">[1]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01" localSheetId="12">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___0" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA01___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA01___0" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA01___0">#REF!</definedName>
     <definedName name="TABLA01___11" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___11" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___11" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___11">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___16" localSheetId="10">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___16" localSheetId="11">[4]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___16" localSheetId="12">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___16">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___22" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___22" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___22" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___22">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___48" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___48" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___48" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___48">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___60" localSheetId="10">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___60" localSheetId="11">[6]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___60" localSheetId="12">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___60">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___67" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___67" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___67" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___67">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___68" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___68" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___68" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___68">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___7" localSheetId="10">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___7" localSheetId="11">[8]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___7" localSheetId="12">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___7">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___70" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___70" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___70" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___70">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___71" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___71" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___71" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___71">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___72" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___72" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___72" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___72">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___73" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___73" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___73" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___73">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___74" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___74" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___74" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___74">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___75" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___75" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___75" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___75">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___8" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___8" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___8" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___8">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___83" localSheetId="10">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___83" localSheetId="11">[9]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA01___83" localSheetId="12">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA01___83">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02" localSheetId="10">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02" localSheetId="11">[1]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02" localSheetId="12">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___0" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA02___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA02___0" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA02___0">#REF!</definedName>
     <definedName name="TABLA02___11" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___11" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___11" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___11">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___16" localSheetId="10">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___16" localSheetId="11">[4]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___16" localSheetId="12">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___16">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___22" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___22" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___22" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___22">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___48" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___48" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___48" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___48">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___60" localSheetId="10">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___60" localSheetId="11">[6]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___60" localSheetId="12">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___60">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___67" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___67" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___67" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___67">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___68" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___68" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___68" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___68">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___7" localSheetId="10">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___7" localSheetId="11">[8]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___7" localSheetId="12">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___7">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___70" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___70" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___70" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___70">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___71" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___71" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___71" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___71">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___72" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___72" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___72" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___72">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___73" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___73" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___73" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___73">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___74" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___74" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___74" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___74">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___75" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___75" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___75" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___75">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___8" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___8" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___8" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___8">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___83" localSheetId="10">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___83" localSheetId="11">[9]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA02___83" localSheetId="12">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA02___83">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03" localSheetId="10">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03" localSheetId="11">[1]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03" localSheetId="12">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03">[1]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___0" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA03___0" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA03___0" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA03___0">#REF!</definedName>
     <definedName name="TABLA03___11" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___11" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___11" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___11">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___16" localSheetId="10">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___16" localSheetId="11">[4]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___16" localSheetId="12">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___16">[4]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___22" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___22" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___22" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___22">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___48" localSheetId="10">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___48" localSheetId="11">[5]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___48" localSheetId="12">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___48">[5]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___60" localSheetId="10">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___60" localSheetId="11">[6]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___60" localSheetId="12">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___60">[6]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___67" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___67" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___67" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___67">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___68" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___68" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___68" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___68">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___7" localSheetId="10">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___7" localSheetId="11">[8]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___7" localSheetId="12">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___7">[8]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___70" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___70" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___70" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___70">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___71" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___71" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___71" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___71">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___72" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___72" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___72" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___72">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___73" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___73" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___73" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___73">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___74" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___74" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___74" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___74">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___75" localSheetId="10">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___75" localSheetId="11">[7]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___75" localSheetId="12">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___75">[7]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___8" localSheetId="10">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___8" localSheetId="11">[10]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___8" localSheetId="12">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___8">[10]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___83" localSheetId="10">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___83" localSheetId="11">[9]Cuadro_45!#REF!</definedName>
+    <definedName name="TABLA03___83" localSheetId="12">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA03___83">[9]Cuadro_45!#REF!</definedName>
     <definedName name="TABLA2000" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA2000" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA2000" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA2000">#REF!</definedName>
     <definedName name="TABLA2001" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA2001" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA2001" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA2001">#REF!</definedName>
     <definedName name="TABLA2002" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA2002" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA2002" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA2002">#REF!</definedName>
     <definedName name="TABLA2003" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA2003" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA2003" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA2003">#REF!</definedName>
     <definedName name="TABLA98" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA98" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA98" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA98">#REF!</definedName>
     <definedName name="TABLA99" localSheetId="10">#REF!</definedName>
     <definedName name="TABLA99" localSheetId="11">#REF!</definedName>
+    <definedName name="TABLA99" localSheetId="12">#REF!</definedName>
     <definedName name="TABLA99">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -644,7 +844,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7141" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7797" uniqueCount="1369">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -4753,6 +4953,12 @@
   </si>
   <si>
     <t>AÑO</t>
+  </si>
+  <si>
+    <t>AÑO 2000</t>
+  </si>
+  <si>
+    <t>AÑO 2006</t>
   </si>
 </sst>
 </file>
@@ -6047,6 +6253,88 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Se necesita filtrar los empleados que hayan ingresado a partir del año 1983 y de area administración</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1" descr="Pergamino"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="85725"/>
+          <a:ext cx="8153400" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000080"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Se necesita a los empleados que hayan ingresado entre los año 2000 a 2006. solo debe mostrar los campos códigos, nombre, fecha de ingreso, cargo</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -33243,8 +33531,8 @@
   </sheetPr>
   <dimension ref="B1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34960,6 +35248,3561 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="20">
+        <v>41</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="G48" s="22">
+        <v>34912</v>
+      </c>
+      <c r="H48" s="22">
+        <v>26079</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J48" s="23">
+        <v>32</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="20">
+        <v>42</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="G49" s="22">
+        <v>30011</v>
+      </c>
+      <c r="H49" s="22">
+        <v>19848</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J49" s="23">
+        <v>49</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="20">
+        <v>43</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="G50" s="22">
+        <v>37753</v>
+      </c>
+      <c r="H50" s="22">
+        <v>27117</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J50" s="23">
+        <v>29</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="20">
+        <v>44</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="G51" s="22">
+        <v>34394</v>
+      </c>
+      <c r="H51" s="22">
+        <v>19572</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J51" s="23">
+        <v>50</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="20">
+        <v>45</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="G52" s="22">
+        <v>37316</v>
+      </c>
+      <c r="H52" s="22">
+        <v>24396</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="J52" s="23">
+        <v>37</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="20">
+        <v>46</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="G53" s="22">
+        <v>35177</v>
+      </c>
+      <c r="H53" s="22">
+        <v>25182</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J53" s="23">
+        <v>35</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="20">
+        <v>47</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="G54" s="22">
+        <v>35125</v>
+      </c>
+      <c r="H54" s="22">
+        <v>24893</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J54" s="23">
+        <v>35</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="20">
+        <v>48</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="G55" s="22">
+        <v>37676</v>
+      </c>
+      <c r="H55" s="22">
+        <v>30346</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J55" s="23">
+        <v>21</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="20">
+        <v>49</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>816</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="G56" s="22">
+        <v>30767</v>
+      </c>
+      <c r="H56" s="22">
+        <v>22072</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J56" s="23">
+        <v>43</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="20">
+        <v>50</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="G57" s="22">
+        <v>32577</v>
+      </c>
+      <c r="H57" s="22">
+        <v>19205</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J57" s="23">
+        <v>51</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <v>51</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="G58" s="22">
+        <v>34547</v>
+      </c>
+      <c r="H58" s="22">
+        <v>20645</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J58" s="23">
+        <v>47</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="20">
+        <v>52</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="G59" s="22">
+        <v>33848</v>
+      </c>
+      <c r="H59" s="22">
+        <v>23023</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J59" s="23">
+        <v>41</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="20">
+        <v>53</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="G60" s="22">
+        <v>36251</v>
+      </c>
+      <c r="H60" s="22">
+        <v>25201</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J60" s="23">
+        <v>35</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="20">
+        <v>54</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="G61" s="22">
+        <v>30011</v>
+      </c>
+      <c r="H61" s="22">
+        <v>16931</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J61" s="23">
+        <v>57</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="20">
+        <v>55</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="G62" s="22">
+        <v>29297</v>
+      </c>
+      <c r="H62" s="22">
+        <v>18958</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J62" s="23">
+        <v>52</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <v>56</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="G63" s="22">
+        <v>37316</v>
+      </c>
+      <c r="H63" s="22">
+        <v>26617</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="J63" s="23">
+        <v>31</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="20">
+        <v>57</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="G64" s="22">
+        <v>37676</v>
+      </c>
+      <c r="H64" s="22">
+        <v>23520</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J64" s="23">
+        <v>39</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="20">
+        <v>58</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="G65" s="22">
+        <v>36586</v>
+      </c>
+      <c r="H65" s="22">
+        <v>21784</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J65" s="23">
+        <v>44</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="20">
+        <v>59</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="G66" s="22">
+        <v>35582</v>
+      </c>
+      <c r="H66" s="22">
+        <v>25614</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J66" s="23">
+        <v>34</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="20">
+        <v>60</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="G67" s="22">
+        <v>35855</v>
+      </c>
+      <c r="H67" s="22">
+        <v>26440</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="J67" s="23">
+        <v>31</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <v>61</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G68" s="22">
+        <v>37773</v>
+      </c>
+      <c r="H68" s="22">
+        <v>23327</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J68" s="23">
+        <v>40</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="20">
+        <v>62</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="G69" s="22">
+        <v>36586</v>
+      </c>
+      <c r="H69" s="22">
+        <v>20046</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J69" s="23">
+        <v>49</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="20">
+        <v>63</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="G70" s="22">
+        <v>36304</v>
+      </c>
+      <c r="H70" s="22">
+        <v>19924</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J70" s="23">
+        <v>49</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="20">
+        <v>64</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="G71" s="22">
+        <v>31117</v>
+      </c>
+      <c r="H71" s="22">
+        <v>18093</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="J71" s="23">
+        <v>54</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="20">
+        <v>65</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="G72" s="22">
+        <v>36220</v>
+      </c>
+      <c r="H72" s="22">
+        <v>18860</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J72" s="23">
+        <v>52</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <v>66</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="G73" s="22">
+        <v>32540</v>
+      </c>
+      <c r="H73" s="22">
+        <v>19592</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="J73" s="23">
+        <v>50</v>
+      </c>
+      <c r="K73" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="20">
+        <v>67</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="G74" s="22">
+        <v>37046</v>
+      </c>
+      <c r="H74" s="22">
+        <v>25129</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J74" s="23">
+        <v>35</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="20">
+        <v>68</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="G75" s="22">
+        <v>37676</v>
+      </c>
+      <c r="H75" s="22">
+        <v>18940</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J75" s="23">
+        <v>52</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="20">
+        <v>69</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="G76" s="22">
+        <v>29465</v>
+      </c>
+      <c r="H76" s="22">
+        <v>19879</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="J76" s="23">
+        <v>49</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="20">
+        <v>70</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="G77" s="22">
+        <v>34394</v>
+      </c>
+      <c r="H77" s="22">
+        <v>21091</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J77" s="23">
+        <v>46</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="20">
+        <v>71</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="G78" s="22">
+        <v>37104</v>
+      </c>
+      <c r="H78" s="22">
+        <v>25998</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J78" s="23">
+        <v>32</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="20">
+        <v>72</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="G79" s="22">
+        <v>36220</v>
+      </c>
+      <c r="H79" s="22">
+        <v>17904</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J79" s="23">
+        <v>55</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="20">
+        <v>73</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="G80" s="22">
+        <v>34813</v>
+      </c>
+      <c r="H80" s="22">
+        <v>21673</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J80" s="23">
+        <v>44</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="20">
+        <v>74</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="G81" s="22">
+        <v>29646</v>
+      </c>
+      <c r="H81" s="22">
+        <v>18483</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J81" s="23">
+        <v>53</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="20">
+        <v>75</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="G82" s="22">
+        <v>35126</v>
+      </c>
+      <c r="H82" s="22">
+        <v>22760</v>
+      </c>
+      <c r="I82" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J82" s="23">
+        <v>41</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="20">
+        <v>76</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="G83" s="22">
+        <v>34394</v>
+      </c>
+      <c r="H83" s="22">
+        <v>18400</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J83" s="23">
+        <v>53</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="20">
+        <v>77</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="G84" s="22">
+        <v>36800</v>
+      </c>
+      <c r="H84" s="22">
+        <v>24765</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J84" s="23">
+        <v>36</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="20">
+        <v>78</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="G85" s="22">
+        <v>31229</v>
+      </c>
+      <c r="H85" s="22">
+        <v>23076</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J85" s="23">
+        <v>40</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="20">
+        <v>79</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="G86" s="22">
+        <v>37378</v>
+      </c>
+      <c r="H86" s="22">
+        <v>25966</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J86" s="23">
+        <v>33</v>
+      </c>
+      <c r="K86" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="20">
+        <v>80</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="G87" s="22">
+        <v>32203</v>
+      </c>
+      <c r="H87" s="22">
+        <v>18232</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J87" s="23">
+        <v>54</v>
+      </c>
+      <c r="K87" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="20">
+        <v>81</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="G88" s="22">
+        <v>33725</v>
+      </c>
+      <c r="H88" s="22">
+        <v>19254</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="J88" s="23">
+        <v>51</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="20">
+        <v>82</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="G89" s="22">
+        <v>35886</v>
+      </c>
+      <c r="H89" s="22">
+        <v>17903</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="J89" s="23">
+        <v>55</v>
+      </c>
+      <c r="K89" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="20">
+        <v>83</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="G90" s="22">
+        <v>32433</v>
+      </c>
+      <c r="H90" s="22">
+        <v>20788</v>
+      </c>
+      <c r="I90" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J90" s="23">
+        <v>47</v>
+      </c>
+      <c r="K90" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="20">
+        <v>84</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="G91" s="22">
+        <v>33451</v>
+      </c>
+      <c r="H91" s="22">
+        <v>24192</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J91" s="23">
+        <v>37</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="20">
+        <v>85</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="G92" s="22">
+        <v>30742</v>
+      </c>
+      <c r="H92" s="22">
+        <v>18167</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J92" s="23">
+        <v>54</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="20">
+        <v>86</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="G93" s="22">
+        <v>37469</v>
+      </c>
+      <c r="H93" s="22">
+        <v>21629</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J93" s="23">
+        <v>44</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="20">
+        <v>87</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="G94" s="22">
+        <v>37676</v>
+      </c>
+      <c r="H94" s="22">
+        <v>23845</v>
+      </c>
+      <c r="I94" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J94" s="23">
+        <v>38</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="20">
+        <v>88</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="G95" s="22">
+        <v>37378</v>
+      </c>
+      <c r="H95" s="22">
+        <v>25863</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J95" s="23">
+        <v>33</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="20">
+        <v>89</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G96" s="22">
+        <v>37469</v>
+      </c>
+      <c r="H96" s="22">
+        <v>26315</v>
+      </c>
+      <c r="I96" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J96" s="23">
+        <v>32</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="20">
+        <v>90</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="G97" s="22">
+        <v>33878</v>
+      </c>
+      <c r="H97" s="22">
+        <v>22586</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J97" s="23">
+        <v>42</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="20">
+        <v>91</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="G98" s="22">
+        <v>35855</v>
+      </c>
+      <c r="H98" s="22">
+        <v>22112</v>
+      </c>
+      <c r="I98" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J98" s="23">
+        <v>43</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="20">
+        <v>92</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="G99" s="22">
+        <v>37186</v>
+      </c>
+      <c r="H99" s="22">
+        <v>24797</v>
+      </c>
+      <c r="I99" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J99" s="23">
+        <v>36</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="20">
+        <v>93</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="G100" s="22">
+        <v>32933</v>
+      </c>
+      <c r="H100" s="22">
+        <v>23801</v>
+      </c>
+      <c r="I100" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J100" s="23">
+        <v>38</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="20">
+        <v>94</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="G101" s="22">
+        <v>37316</v>
+      </c>
+      <c r="H101" s="22">
+        <v>17124</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J101" s="23">
+        <v>57</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="20">
+        <v>95</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="G102" s="22">
+        <v>32351</v>
+      </c>
+      <c r="H102" s="22">
+        <v>17189</v>
+      </c>
+      <c r="I102" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J102" s="23">
+        <v>57</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="20">
+        <v>96</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="G103" s="22">
+        <v>36220</v>
+      </c>
+      <c r="H103" s="22">
+        <v>22144</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="J103" s="23">
+        <v>43</v>
+      </c>
+      <c r="K103" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="20">
+        <v>97</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="G104" s="22">
+        <v>37681</v>
+      </c>
+      <c r="H104" s="22">
+        <v>18263</v>
+      </c>
+      <c r="I104" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J104" s="23">
+        <v>54</v>
+      </c>
+      <c r="K104" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:P104"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="14.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G8" s="22">
+        <v>30103</v>
+      </c>
+      <c r="H8" s="22">
+        <v>20327</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="J8" s="23">
+        <v>48</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <f>YEAR(G8)&gt;=2000</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="b">
+        <f>YEAR(G8)&lt;=2006</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>941</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="G9" s="22">
+        <v>37676</v>
+      </c>
+      <c r="H9" s="22">
+        <v>24362</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="J9" s="23">
+        <v>37</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="20">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G10" s="22">
+        <v>32721</v>
+      </c>
+      <c r="H10" s="22">
+        <v>20228</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="J10" s="23">
+        <v>48</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="G11" s="22">
+        <v>36055</v>
+      </c>
+      <c r="H11" s="22">
+        <v>23445</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="J11" s="23">
+        <v>39</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="20">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>933</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="G12" s="22">
+        <v>30544</v>
+      </c>
+      <c r="H12" s="22">
+        <v>19749</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>932</v>
+      </c>
+      <c r="J12" s="23">
+        <v>50</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="20">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="G13" s="22">
+        <v>36913</v>
+      </c>
+      <c r="H13" s="22">
+        <v>26324</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="J13" s="23">
+        <v>32</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="20">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="G14" s="22">
+        <v>31943</v>
+      </c>
+      <c r="H14" s="22">
+        <v>21802</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="J14" s="23">
+        <v>44</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="20">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="G15" s="22">
+        <v>32629</v>
+      </c>
+      <c r="H15" s="22">
+        <v>19808</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>924</v>
+      </c>
+      <c r="J15" s="23">
+        <v>49</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M15" s="20">
+        <v>2</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="O15" s="22">
+        <v>37676</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="20">
+        <v>9</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="G16" s="22">
+        <v>31837</v>
+      </c>
+      <c r="H16" s="22">
+        <v>19440</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="J16" s="23">
+        <v>50</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M16" s="20">
+        <v>6</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="O16" s="22">
+        <v>36913</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="20">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="G17" s="22">
+        <v>32006</v>
+      </c>
+      <c r="H17" s="22">
+        <v>21546</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="J17" s="23">
+        <v>45</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M17" s="20">
+        <v>17</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="O17" s="22">
+        <v>37151</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="20">
+        <v>11</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="G18" s="22">
+        <v>32417</v>
+      </c>
+      <c r="H18" s="22">
+        <v>24411</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="J18" s="23">
+        <v>37</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M18" s="20">
+        <v>18</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="O18" s="22">
+        <v>37773</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="20">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>911</v>
+      </c>
+      <c r="G19" s="22">
+        <v>30536</v>
+      </c>
+      <c r="H19" s="22">
+        <v>19981</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="J19" s="23">
+        <v>49</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M19" s="20">
+        <v>24</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="O19" s="22">
+        <v>37739</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="20">
+        <v>13</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>908</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="G20" s="22">
+        <v>33756</v>
+      </c>
+      <c r="H20" s="22">
+        <v>24846</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J20" s="23">
+        <v>36</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M20" s="20">
+        <v>25</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="O20" s="22">
+        <v>36586</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="G21" s="22">
+        <v>34759</v>
+      </c>
+      <c r="H21" s="22">
+        <v>25295</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J21" s="23">
+        <v>34</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M21" s="20">
+        <v>26</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="O21" s="22">
+        <v>37135</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="20">
+        <v>15</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>903</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G22" s="22">
+        <v>34190</v>
+      </c>
+      <c r="H22" s="22">
+        <v>23291</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J22" s="23">
+        <v>40</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M22" s="20">
+        <v>29</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="O22" s="22">
+        <v>36831</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="20">
+        <v>16</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>902</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>901</v>
+      </c>
+      <c r="G23" s="22">
+        <v>29373</v>
+      </c>
+      <c r="H23" s="22">
+        <v>22809</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J23" s="23">
+        <v>41</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M23" s="20">
+        <v>35</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="O23" s="22">
+        <v>37316</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="20">
+        <v>17</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>900</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="G24" s="22">
+        <v>37151</v>
+      </c>
+      <c r="H24" s="22">
+        <v>26070</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J24" s="23">
+        <v>32</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M24" s="20">
+        <v>43</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="O24" s="22">
+        <v>37753</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="20">
+        <v>18</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="G25" s="22">
+        <v>37773</v>
+      </c>
+      <c r="H25" s="22">
+        <v>25497</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J25" s="23">
+        <v>34</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M25" s="20">
+        <v>45</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="O25" s="22">
+        <v>37316</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <v>19</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>895</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="G26" s="22">
+        <v>32401</v>
+      </c>
+      <c r="H26" s="22">
+        <v>22474</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J26" s="23">
+        <v>42</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M26" s="20">
+        <v>48</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="O26" s="22">
+        <v>37676</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="20">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>892</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="G27" s="22">
+        <v>35855</v>
+      </c>
+      <c r="H27" s="22">
+        <v>24838</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J27" s="23">
+        <v>36</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M27" s="20">
+        <v>56</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="O27" s="22">
+        <v>37316</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="20">
+        <v>21</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="G28" s="22">
+        <v>33664</v>
+      </c>
+      <c r="H28" s="22">
+        <v>23480</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J28" s="23">
+        <v>39</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M28" s="20">
+        <v>57</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="O28" s="22">
+        <v>37676</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="20">
+        <v>22</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>887</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>886</v>
+      </c>
+      <c r="G29" s="22">
+        <v>30133</v>
+      </c>
+      <c r="H29" s="22">
+        <v>21601</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J29" s="23">
+        <v>45</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M29" s="20">
+        <v>58</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="O29" s="22">
+        <v>36586</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="20">
+        <v>23</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>883</v>
+      </c>
+      <c r="G30" s="22">
+        <v>36220</v>
+      </c>
+      <c r="H30" s="22">
+        <v>27940</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J30" s="23">
+        <v>27</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M30" s="20">
+        <v>61</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37773</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <v>24</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="G31" s="22">
+        <v>37739</v>
+      </c>
+      <c r="H31" s="22">
+        <v>29196</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J31" s="23">
+        <v>24</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M31" s="20">
+        <v>62</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="O31" s="22">
+        <v>36586</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="20">
+        <v>25</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="G32" s="22">
+        <v>36586</v>
+      </c>
+      <c r="H32" s="22">
+        <v>29223</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J32" s="23">
+        <v>24</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M32" s="20">
+        <v>67</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="O32" s="22">
+        <v>37046</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="20">
+        <v>26</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="G33" s="22">
+        <v>37135</v>
+      </c>
+      <c r="H33" s="22">
+        <v>27852</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J33" s="23">
+        <v>27</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M33" s="20">
+        <v>68</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="O33" s="22">
+        <v>37676</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="20">
+        <v>27</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>874</v>
+      </c>
+      <c r="G34" s="22">
+        <v>35855</v>
+      </c>
+      <c r="H34" s="22">
+        <v>27606</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J34" s="23">
+        <v>28</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M34" s="20">
+        <v>71</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="O34" s="22">
+        <v>37104</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="20">
+        <v>28</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="G35" s="22">
+        <v>34759</v>
+      </c>
+      <c r="H35" s="22">
+        <v>26477</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J35" s="23">
+        <v>31</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M35" s="20">
+        <v>77</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="O35" s="22">
+        <v>36800</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <v>29</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="G36" s="22">
+        <v>36831</v>
+      </c>
+      <c r="H36" s="22">
+        <v>21238</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J36" s="23">
+        <v>46</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M36" s="20">
+        <v>79</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="O36" s="22">
+        <v>37378</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="20">
+        <v>30</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="G37" s="22">
+        <v>34759</v>
+      </c>
+      <c r="H37" s="22">
+        <v>26257</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J37" s="23">
+        <v>32</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M37" s="20">
+        <v>86</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="O37" s="22">
+        <v>37469</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="20">
+        <v>31</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="G38" s="22">
+        <v>36269</v>
+      </c>
+      <c r="H38" s="22">
+        <v>27080</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J38" s="23">
+        <v>30</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="M38" s="20">
+        <v>87</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="O38" s="22">
+        <v>37676</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="20">
+        <v>32</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="G39" s="22">
+        <v>34394</v>
+      </c>
+      <c r="H39" s="22">
+        <v>21679</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J39" s="23">
+        <v>44</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M39" s="20">
+        <v>88</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="O39" s="22">
+        <v>37378</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="20">
+        <v>33</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="G40" s="22">
+        <v>32434</v>
+      </c>
+      <c r="H40" s="22">
+        <v>17736</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="J40" s="23">
+        <v>55</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M40" s="20">
+        <v>89</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="O40" s="22">
+        <v>37469</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="20">
+        <v>34</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="G41" s="22">
+        <v>29646</v>
+      </c>
+      <c r="H41" s="22">
+        <v>21818</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J41" s="23">
+        <v>44</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M41" s="20">
+        <v>92</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="O41" s="22">
+        <v>37186</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="20">
+        <v>35</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="G42" s="22">
+        <v>37316</v>
+      </c>
+      <c r="H42" s="22">
+        <v>24154</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J42" s="23">
+        <v>38</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="M42" s="20">
+        <v>94</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="O42" s="22">
+        <v>37316</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <v>36</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="G43" s="22">
+        <v>31837</v>
+      </c>
+      <c r="H43" s="22">
+        <v>17379</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J43" s="23">
+        <v>56</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="M43" s="20">
+        <v>97</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="O43" s="22">
+        <v>37681</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="20">
+        <v>37</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="G44" s="22">
+        <v>35499</v>
+      </c>
+      <c r="H44" s="22">
+        <v>26266</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="J44" s="23">
+        <v>32</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="20">
+        <v>38</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="G45" s="22">
+        <v>33451</v>
+      </c>
+      <c r="H45" s="22">
+        <v>21916</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J45" s="23">
+        <v>44</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="20">
+        <v>39</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="G46" s="22">
+        <v>30592</v>
+      </c>
+      <c r="H46" s="22">
+        <v>19689</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="J46" s="23">
+        <v>50</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="20">
+        <v>40</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="G47" s="22">
+        <v>35870</v>
+      </c>
+      <c r="H47" s="22">
+        <v>24332</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="J47" s="23">
+        <v>37</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="20">
         <v>41</v>
       </c>
@@ -47394,7 +51237,7 @@
   </sheetData>
   <autoFilter ref="B6:J103">
     <filterColumn colId="3">
-      <dynamicFilter type="aboveAverage" val="1697.2061855670104"/>
+      <dynamicFilter type="aboveAverage"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -55111,7 +58954,7 @@
   </sheetData>
   <autoFilter ref="B6:J103">
     <filterColumn colId="3">
-      <dynamicFilter type="aboveAverage" val="1697.2061855670104"/>
+      <dynamicFilter type="aboveAverage"/>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
